--- a/data/Tab2.xlsx
+++ b/data/Tab2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richardevans/Docs/Economics/OSE/TN-BusTax2024/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{192E77A7-EBAC-874B-AC73-6E73574EA728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441476E8-966B-D14B-ADEE-BD52DF6D19CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="1680" windowWidth="26340" windowHeight="14920" xr2:uid="{2F00C51F-34EA-FB4F-8ECA-F0C452F06781}"/>
+    <workbookView xWindow="-26380" yWindow="4140" windowWidth="25760" windowHeight="14920" xr2:uid="{2F00C51F-34EA-FB4F-8ECA-F0C452F06781}"/>
   </bookViews>
   <sheets>
     <sheet name="Table2" sheetId="1" r:id="rId1"/>
@@ -468,7 +468,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -511,20 +511,20 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <f>J5+(J5/J9)*J7</f>
-        <v>2832123171.606421</v>
+        <f>J5 + (J5/(J4+J5))*J6</f>
+        <v>3016322556.7784605</v>
       </c>
       <c r="D4" s="2">
         <f>C4/C9</f>
-        <v>0.13551711568970018</v>
+        <v>0.14433105769638629</v>
       </c>
       <c r="E4" s="1">
-        <f>K5+(K5/K9)*K7</f>
-        <v>3333854715.8130527</v>
+        <f>K5+(K5/(K4+K5))*K6</f>
+        <v>3381337156.1809602</v>
       </c>
       <c r="F4" s="2">
         <f>E4/E9</f>
-        <v>0.15130132698306889</v>
+        <v>0.15345623679422027</v>
       </c>
       <c r="I4" t="s">
         <v>2</v>
@@ -541,20 +541,20 @@
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <f>J4 + (J4/J9)*J7</f>
-        <v>1425469981.5477793</v>
+        <f>J4 + (J4/(J4+J5))*J6</f>
+        <v>1518181589.8615396</v>
       </c>
       <c r="D5" s="2">
         <f>C5/C9</f>
-        <v>6.8208749654074266E-2</v>
+        <v>7.2645000829727593E-2</v>
       </c>
       <c r="E5" s="1">
-        <f>K4 + (K4/K9)*K7</f>
-        <v>1405236750.0320323</v>
+        <f>K4 + (K4/(K4+K5))*K6</f>
+        <v>1425250840.5890396</v>
       </c>
       <c r="F5" s="2">
         <f>E5/E9</f>
-        <v>6.3774280263850583E-2</v>
+        <v>6.4682585729374145E-2</v>
       </c>
       <c r="I5" t="s">
         <v>1</v>
@@ -584,8 +584,15 @@
         <f>E6/E9</f>
         <v>1.5118977084770651E-2</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1120559703.0999999</v>
+      </c>
+      <c r="K6" s="1">
+        <v>569585827.91999996</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
@@ -605,21 +612,21 @@
         <f>E7/E9</f>
         <v>9.6861789204423076E-3</v>
       </c>
-      <c r="I7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1120559703.0999999</v>
-      </c>
-      <c r="K7" s="1">
-        <v>569585827.91999996</v>
-      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="1">
+        <f>SUM(J4:J6)</f>
+        <v>4534504146.6399994</v>
+      </c>
+      <c r="K8" s="1">
+        <f>SUM(K4:K6)</f>
+        <v>4806587996.7699995</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
@@ -639,21 +646,14 @@
         <f>E9/E9</f>
         <v>1</v>
       </c>
-      <c r="I9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="1">
-        <f>SUM(J4:J7)</f>
-        <v>4534504146.6399994</v>
-      </c>
-      <c r="K9" s="1">
-        <f>SUM(K4:K7)</f>
-        <v>4806587996.7699995</v>
-      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D10" s="2"/>
       <c r="F10" s="2"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
